--- a/documents/ReporteVale.xlsx
+++ b/documents/ReporteVale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Duarte Garcia\OneDrive - Universidad Técnica Nacional\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3649210F-00F4-49F0-A89D-678D49228DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B197129-EF00-4339-9E30-9F9D6C8BD93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t/>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">LLENAR POR EL CONDUCTOR: </t>
-  </si>
-  <si>
-    <t>Lic. Luis Enrique Salazar Durán</t>
   </si>
   <si>
     <t>FIRMA FUNCIONARIO QUE AUTORIZA:</t>
@@ -783,7 +780,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1116,15 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1630,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F8341-330E-4B75-B029-434DF2C2CA09}">
   <dimension ref="B1:AT113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22:AA22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1639,7 +1627,7 @@
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
@@ -3369,88 +3357,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="135" t="s">
-        <v>34</v>
+      <c r="B1" s="132" t="s">
+        <v>33</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
     </row>
     <row r="2" spans="2:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
-        <v>33</v>
+      <c r="B3" s="135" t="s">
+        <v>32</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
     </row>
     <row r="4" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
       <c r="N4" s="50"/>
       <c r="O4" s="51"/>
       <c r="P4" s="83"/>
@@ -3467,18 +3455,18 @@
       <c r="AA4" s="52"/>
     </row>
     <row r="5" spans="2:27" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="128" t="s">
-        <v>32</v>
+      <c r="B5" s="125" t="s">
+        <v>31</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="48"/>
       <c r="N5" s="53"/>
@@ -3498,7 +3486,7 @@
     </row>
     <row r="6" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -3525,21 +3513,21 @@
       <c r="AA6" s="78"/>
     </row>
     <row r="7" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117" t="s">
+      <c r="B7" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="115"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
       <c r="K7" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="96"/>
       <c r="O7" s="100"/>
@@ -3557,15 +3545,15 @@
       <c r="AA7" s="78"/>
     </row>
     <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
       <c r="K8" s="43"/>
       <c r="N8" s="96"/>
       <c r="O8" s="100"/>
@@ -3584,17 +3572,17 @@
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="132"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
       <c r="N9" s="96"/>
       <c r="O9" s="100"/>
       <c r="P9" s="97"/>
@@ -3612,15 +3600,15 @@
     </row>
     <row r="10" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="41"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="133"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="130"/>
       <c r="N10" s="96"/>
       <c r="O10" s="100"/>
       <c r="P10" s="97"/>
@@ -3638,15 +3626,15 @@
     </row>
     <row r="11" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="40"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="133"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="130"/>
       <c r="N11" s="96"/>
       <c r="O11" s="100"/>
       <c r="P11" s="97"/>
@@ -3663,20 +3651,20 @@
       <c r="AA11" s="78"/>
     </row>
     <row r="12" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="126" t="s">
-        <v>25</v>
+      <c r="B12" s="123" t="s">
+        <v>24</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
       <c r="N12" s="96"/>
       <c r="O12" s="100"/>
       <c r="P12" s="97"/>
@@ -3693,16 +3681,16 @@
       <c r="AA12" s="78"/>
     </row>
     <row r="13" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
       <c r="N13" s="96"/>
       <c r="O13" s="100"/>
       <c r="P13" s="97"/>
@@ -3726,10 +3714,10 @@
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="N14" s="125"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="111"/>
+      <c r="N14" s="122"/>
       <c r="O14" s="100"/>
       <c r="P14" s="97"/>
       <c r="Q14" s="78"/>
@@ -3752,10 +3740,10 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
-      <c r="N15" s="125"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
+      <c r="N15" s="122"/>
       <c r="O15" s="100"/>
       <c r="P15" s="97"/>
       <c r="Q15" s="78"/>
@@ -3778,10 +3766,10 @@
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="57"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="N16" s="125"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
+      <c r="N16" s="122"/>
       <c r="O16" s="100"/>
       <c r="P16" s="97"/>
       <c r="Q16" s="78"/>
@@ -3798,7 +3786,7 @@
     </row>
     <row r="17" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="94"/>
       <c r="D17" s="94"/>
@@ -3827,15 +3815,15 @@
     <row r="18" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="104"/>
       <c r="I18" s="104"/>
@@ -3858,14 +3846,14 @@
     </row>
     <row r="19" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="86"/>
       <c r="D19" s="87"/>
       <c r="E19" s="88"/>
       <c r="F19" s="89"/>
       <c r="G19" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
@@ -3888,7 +3876,7 @@
     </row>
     <row r="20" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="92"/>
@@ -3898,7 +3886,7 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="82"/>
       <c r="N20" s="83"/>
@@ -3921,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -3948,7 +3936,7 @@
     </row>
     <row r="22" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -3976,7 +3964,7 @@
     </row>
     <row r="23" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -3984,7 +3972,7 @@
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
@@ -4006,7 +3994,7 @@
     </row>
     <row r="24" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -4014,7 +4002,7 @@
       <c r="F24" s="62"/>
       <c r="G24" s="63"/>
       <c r="H24" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -4036,35 +4024,33 @@
     </row>
     <row r="25" spans="2:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
       <c r="E25" s="75"/>
       <c r="F25" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
       <c r="E26" s="77"/>
       <c r="F26" s="77"/>
-      <c r="G26" s="66" t="s">
-        <v>7</v>
-      </c>
+      <c r="G26" s="66"/>
       <c r="H26" s="66"/>
       <c r="I26" s="66"/>
       <c r="J26" s="66"/>
@@ -4266,6 +4252,7 @@
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:R13"/>
     <mergeCell ref="B5:I5"/>
@@ -4288,6 +4275,8 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="V18:AA18"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -4311,9 +4300,6 @@
     <mergeCell ref="Q14:R16"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T17:U18"/>
     <mergeCell ref="V17:AA17"/>
     <mergeCell ref="Q10:R11"/>
     <mergeCell ref="S10:S11"/>
@@ -4323,7 +4309,6 @@
     <mergeCell ref="V14:AA14"/>
     <mergeCell ref="V16:AA16"/>
     <mergeCell ref="T12:U13"/>
-    <mergeCell ref="V18:AA18"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="Q17:R18"/>
     <mergeCell ref="S17:S18"/>
@@ -4336,6 +4321,7 @@
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="H18:K18"/>
+    <mergeCell ref="T17:U18"/>
     <mergeCell ref="V19:AA19"/>
     <mergeCell ref="V20:AA21"/>
     <mergeCell ref="E20:F20"/>

--- a/documents/ReporteVale.xlsx
+++ b/documents/ReporteVale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Duarte Garcia\OneDrive - Universidad Técnica Nacional\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B197129-EF00-4339-9E30-9F9D6C8BD93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DAB1C-EF56-482E-8058-93C22777755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
   </bookViews>
@@ -39,12 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Fórm. 4-70-01-0760</t>
   </si>
   <si>
     <t>ENTRADA:</t>
@@ -153,6 +150,88 @@
   </si>
   <si>
     <t>CAJA COSTARRICENSE DE SEGURO SOCIAL</t>
+  </si>
+  <si>
+    <t>DATOS A LLENAR POR EL RESPONSABLE DEL SERVICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALIDA </t>
+  </si>
+  <si>
+    <t>LLEGADA</t>
+  </si>
+  <si>
+    <t>KILOMETRAJE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KILOMETRAJE:</t>
+  </si>
+  <si>
+    <t>DÍA</t>
+  </si>
+  <si>
+    <t>HORARIO USO VEHÍCULO</t>
+  </si>
+  <si>
+    <t>LUGARES VISITADOS</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>De:</t>
+  </si>
+  <si>
+    <t>A:</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>NOTA: Favor tachar los renglones de los días no trabajado en la gira.</t>
+  </si>
+  <si>
+    <t>(Salvo autorización de la Gerencia respectiva, no se pagarán más de cuatro horas Extras por día según circular No. 6254 del 30/03/90).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OBSERVACIONES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: (Retrasos, variaciones de fechas, problemas de vehículo, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma usuario responsable  </t>
+  </si>
+  <si>
+    <t>V.B. Conductor</t>
   </si>
 </sst>
 </file>
@@ -301,7 +380,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +393,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -774,13 +865,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -866,9 +1203,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -929,18 +1263,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -956,14 +1278,194 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1002,12 +1504,6 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1020,203 +1516,176 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,70 +1702,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector recto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE757074-AC7C-467B-B8F4-89AE117FDA60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19050" y="4857750"/>
-          <a:ext cx="8362950" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1618,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F8341-330E-4B75-B029-434DF2C2CA09}">
   <dimension ref="B1:AT113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:K16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1632,25 +2037,25 @@
     <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="2.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="3" style="1" customWidth="1"/>
     <col min="20" max="20" width="3.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="7.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="3.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="6.85546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="12.42578125" style="1" customWidth="1"/>
     <col min="25" max="25" width="5.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" style="1" customWidth="1"/>
     <col min="28" max="46" width="11.42578125" style="2"/>
     <col min="47" max="257" width="11.42578125" style="1"/>
     <col min="258" max="258" width="4.28515625" style="1" customWidth="1"/>
@@ -3357,559 +3762,623 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
     </row>
-    <row r="2" spans="2:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="134" t="s">
+    <row r="2" spans="2:27" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="135" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="N3" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="125"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="129"/>
     </row>
     <row r="4" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="52"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="N4" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="131"/>
+      <c r="P4" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="137"/>
     </row>
     <row r="5" spans="2:27" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="49" t="s">
+      <c r="B5" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="N5" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="141"/>
     </row>
     <row r="6" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="45"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
+      <c r="B6" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="N6" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="143"/>
+      <c r="P6" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="145"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="110"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="110"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="149"/>
     </row>
     <row r="7" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114" t="s">
+      <c r="B7" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="44" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="96"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="150"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="110"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="110"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="149"/>
     </row>
     <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="43"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="42"/>
+      <c r="N8" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="143"/>
+      <c r="P8" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="145"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="149"/>
     </row>
     <row r="9" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
+      <c r="B9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="149"/>
     </row>
     <row r="10" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="130"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="N10" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="143"/>
+      <c r="P10" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="145"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="149"/>
     </row>
     <row r="11" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="40"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="130"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="149"/>
     </row>
     <row r="12" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="123" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="38" t="s">
+      <c r="B12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="N12" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="143"/>
+      <c r="P12" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="145"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="149"/>
     </row>
     <row r="13" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="110"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="149"/>
     </row>
     <row r="14" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="111"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="N14" s="155" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="143"/>
+      <c r="P14" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="145"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="149"/>
     </row>
     <row r="15" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="149"/>
     </row>
     <row r="16" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="N16" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="143"/>
+      <c r="P16" s="144" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" s="145"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="149"/>
     </row>
     <row r="17" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="103"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
+      <c r="B17" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="149"/>
     </row>
     <row r="18" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="54" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="N18" s="157" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="158"/>
+      <c r="P18" s="159" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="160" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="149"/>
     </row>
     <row r="19" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="36" t="s">
+      <c r="B19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="105"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="164"/>
     </row>
     <row r="20" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="82"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
+      <c r="B20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="98"/>
+      <c r="N20" s="165"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="169"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="170"/>
     </row>
-    <row r="21" spans="2:27" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21">
         <v>2</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
@@ -3919,142 +4388,149 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="28"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
+      <c r="N21" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="172"/>
+      <c r="AA21" s="173"/>
     </row>
-    <row r="22" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="68"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
+    <row r="22" spans="2:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="116"/>
+      <c r="N22" s="174" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="174"/>
+      <c r="Z22" s="174"/>
+      <c r="AA22" s="174"/>
     </row>
     <row r="23" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="B23" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="25"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
+      <c r="N23" s="175" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="175"/>
+      <c r="Y23" s="175"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="175"/>
     </row>
     <row r="24" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
+      <c r="B24" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
       <c r="H24" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="22"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
+      <c r="N24" s="176"/>
+      <c r="O24" s="176"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="176"/>
+      <c r="Y24" s="176"/>
+      <c r="Z24" s="176"/>
+      <c r="AA24" s="176"/>
     </row>
     <row r="25" spans="2:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="18" t="s">
-        <v>10</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K25" s="17"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
+      <c r="B26" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="115"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:27" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4068,14 +4544,27 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="14"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
     </row>
     <row r="28" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
+      <c r="B28" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -4083,66 +4572,85 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="12"/>
+      <c r="N28" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="69"/>
+      <c r="B29" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="117"/>
       <c r="H29" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="9"/>
+      <c r="N29" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="178"/>
+      <c r="P29" s="178"/>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
+      <c r="X29" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y29" s="179"/>
+      <c r="Z29" s="179"/>
+      <c r="AA29" s="179"/>
     </row>
     <row r="30" spans="2:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
+        <v>2</v>
+      </c>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
       <c r="F30" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B31" s="3"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="180"/>
+      <c r="R31" s="180"/>
+      <c r="S31" s="180"/>
+      <c r="T31" s="180"/>
+      <c r="U31" s="180"/>
+      <c r="V31" s="180"/>
+      <c r="W31" s="180"/>
+      <c r="X31" s="180"/>
+      <c r="Y31" s="180"/>
+      <c r="Z31" s="180"/>
+      <c r="AA31" s="180"/>
     </row>
     <row r="32" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
@@ -4212,22 +4720,37 @@
     <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="14:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+    </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4242,16 +4765,78 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="N1:AA1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="N23:AA23"/>
+    <mergeCell ref="N22:AA22"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:U15"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="Q18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:U20"/>
+    <mergeCell ref="V19:AA20"/>
+    <mergeCell ref="N21:AA21"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="V17:AA17"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="V10:AA10"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="N12:N13"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:R13"/>
@@ -4276,78 +4861,16 @@
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:R7"/>
     <mergeCell ref="S12:S13"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:U16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="Q14:R16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="V17:AA17"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:U11"/>
-    <mergeCell ref="V10:AA10"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="V14:AA14"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="T19:U21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="T17:U18"/>
-    <mergeCell ref="V19:AA19"/>
-    <mergeCell ref="V20:AA21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="Q19:R21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="N22:AA22"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="N23:AA23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="N24:AA24"/>
-    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="N1:AA1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="Y4:Z4"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.43307086614173229" bottom="0.98425196850393704" header="0" footer="0"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
@@ -4355,6 +4878,5 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="12" max="29" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/ReporteVale.xlsx
+++ b/documents/ReporteVale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Duarte Garcia\OneDrive - Universidad Técnica Nacional\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DAB1C-EF56-482E-8058-93C22777755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C120F-E069-44AD-BE91-0475B5B13018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
   </bookViews>
@@ -1281,24 +1281,342 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1307,6 +1625,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1316,10 +1640,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1328,193 +1648,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1534,12 +1678,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1547,145 +1685,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2024,7 +2024,7 @@
   <dimension ref="B1:AT113"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2056,7 +2056,8 @@
     <col min="25" max="25" width="5.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" style="1" customWidth="1"/>
     <col min="27" max="27" width="7.85546875" style="1" customWidth="1"/>
-    <col min="28" max="46" width="11.42578125" style="2"/>
+    <col min="28" max="28" width="2.85546875" style="2" customWidth="1"/>
+    <col min="29" max="46" width="11.42578125" style="2"/>
     <col min="47" max="257" width="11.42578125" style="1"/>
     <col min="258" max="258" width="4.28515625" style="1" customWidth="1"/>
     <col min="259" max="259" width="9.7109375" style="1" customWidth="1"/>
@@ -3761,157 +3762,162 @@
     <col min="16156" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="N1" s="55" t="s">
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="N1" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="63"/>
     </row>
-    <row r="2" spans="2:27" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+    <row r="2" spans="2:28" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB2" s="63"/>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="57" t="s">
+    <row r="3" spans="2:28" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="N3" s="124" t="s">
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="N3" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="125"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="128" t="s">
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="129"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="63"/>
     </row>
-    <row r="4" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
+    <row r="4" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="N4" s="130" t="s">
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="N4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="132" t="s">
+      <c r="O4" s="55"/>
+      <c r="P4" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="134" t="s">
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="136" t="s">
+      <c r="X4" s="57"/>
+      <c r="Y4" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="137"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="63"/>
     </row>
-    <row r="5" spans="2:27" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+    <row r="5" spans="2:28" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="48" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="47"/>
-      <c r="N5" s="138" t="s">
+      <c r="N5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="139" t="s">
+      <c r="O5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="88" t="s">
+      <c r="P5" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="88" t="s">
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="140"/>
-      <c r="Z5" s="140"/>
-      <c r="AA5" s="141"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="162"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="63"/>
     </row>
-    <row r="6" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>28</v>
       </c>
@@ -3924,240 +3930,248 @@
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
       <c r="K6" s="44"/>
-      <c r="N6" s="142" t="s">
+      <c r="N6" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="143"/>
-      <c r="P6" s="144" t="s">
+      <c r="O6" s="70"/>
+      <c r="P6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="146" t="s">
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="145"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="149"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="63"/>
     </row>
-    <row r="7" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="73" t="s">
+    <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
       <c r="K7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="150"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="149"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="63"/>
     </row>
-    <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+    <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="42"/>
-      <c r="N8" s="142" t="s">
+      <c r="N8" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="143"/>
-      <c r="P8" s="144" t="s">
+      <c r="O8" s="70"/>
+      <c r="P8" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="146" t="s">
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="145"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="149"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="63"/>
     </row>
-    <row r="9" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="149"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="63"/>
     </row>
-    <row r="10" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="N10" s="142" t="s">
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="166"/>
+      <c r="N10" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="143"/>
-      <c r="P10" s="144" t="s">
+      <c r="O10" s="70"/>
+      <c r="P10" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145" t="s">
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="145"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="149"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="63"/>
     </row>
-    <row r="11" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="149"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="166"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="63"/>
     </row>
-    <row r="12" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="83" t="s">
+    <row r="12" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="N12" s="142" t="s">
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="N12" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="143"/>
-      <c r="P12" s="144" t="s">
+      <c r="O12" s="70"/>
+      <c r="P12" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="146" t="s">
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="145"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="110"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="149"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="63"/>
     </row>
-    <row r="13" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="71"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="153"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="110"/>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="149"/>
+    <row r="13" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="144"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="63"/>
     </row>
-    <row r="14" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -4165,31 +4179,32 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="N14" s="155" t="s">
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
+      <c r="N14" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="143"/>
-      <c r="P14" s="144" t="s">
+      <c r="O14" s="70"/>
+      <c r="P14" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="146" t="s">
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="145"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="149"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="63"/>
     </row>
-    <row r="15" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="50"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -4197,25 +4212,26 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="149"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="63"/>
     </row>
-    <row r="16" spans="2:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="50"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
@@ -4223,157 +4239,162 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="N16" s="142" t="s">
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="143"/>
+      <c r="N16" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="143"/>
-      <c r="P16" s="144" t="s">
+      <c r="O16" s="70"/>
+      <c r="P16" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="146" t="s">
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="145"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-      <c r="AA16" s="149"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="63"/>
     </row>
-    <row r="17" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="85" t="s">
+    <row r="17" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="110"/>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="149"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="63"/>
     </row>
-    <row r="18" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="88" t="s">
+      <c r="D18" s="135"/>
+      <c r="E18" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="N18" s="157" t="s">
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="140"/>
+      <c r="N18" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159" t="s">
+      <c r="O18" s="114"/>
+      <c r="P18" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="160" t="s">
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="110"/>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="110"/>
-      <c r="Z18" s="110"/>
-      <c r="AA18" s="149"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="63"/>
     </row>
-    <row r="19" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="35" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="105"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="164"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="109"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="63"/>
     </row>
-    <row r="20" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="32"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="97" t="s">
+      <c r="J20" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="98"/>
-      <c r="N20" s="165"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="169"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="170"/>
+      <c r="K20" s="103"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="63"/>
     </row>
-    <row r="21" spans="2:27" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21">
         <v>2</v>
       </c>
@@ -4388,59 +4409,61 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="28"/>
-      <c r="N21" s="171" t="s">
+      <c r="N21" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="172"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="172"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="172"/>
-      <c r="AA21" s="173"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="129"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="63"/>
     </row>
-    <row r="22" spans="2:27" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="107" t="s">
+    <row r="22" spans="2:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="116"/>
-      <c r="N22" s="174" t="s">
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="93"/>
+      <c r="N22" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="174"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="174"/>
-      <c r="R22" s="174"/>
-      <c r="S22" s="174"/>
-      <c r="T22" s="174"/>
-      <c r="U22" s="174"/>
-      <c r="V22" s="174"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="174"/>
-      <c r="Y22" s="174"/>
-      <c r="Z22" s="174"/>
-      <c r="AA22" s="174"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="63"/>
     </row>
-    <row r="23" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="107" t="s">
+    <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
@@ -4450,60 +4473,62 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="25"/>
-      <c r="N23" s="175" t="s">
+      <c r="N23" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="175"/>
-      <c r="U23" s="175"/>
-      <c r="V23" s="175"/>
-      <c r="W23" s="175"/>
-      <c r="X23" s="175"/>
-      <c r="Y23" s="175"/>
-      <c r="Z23" s="175"/>
-      <c r="AA23" s="175"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="63"/>
     </row>
-    <row r="24" spans="2:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="109" t="s">
+    <row r="24" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="24" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="22"/>
-      <c r="N24" s="176"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="176"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="176"/>
-      <c r="W24" s="176"/>
-      <c r="X24" s="176"/>
-      <c r="Y24" s="176"/>
-      <c r="Z24" s="176"/>
-      <c r="AA24" s="176"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="63"/>
     </row>
-    <row r="25" spans="2:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="120"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="121"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
       <c r="F25" s="18" t="s">
         <v>9</v>
       </c>
@@ -4517,23 +4542,25 @@
       </c>
       <c r="K25" s="17"/>
       <c r="N25" s="3"/>
+      <c r="AB25" s="63"/>
     </row>
-    <row r="26" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="122" t="s">
+    <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="115"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
       <c r="N26" s="3"/>
+      <c r="AB26" s="63"/>
     </row>
-    <row r="27" spans="2:27" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -4544,27 +4571,28 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="14"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="177"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="177"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
-      <c r="U27" s="177"/>
-      <c r="V27" s="177"/>
-      <c r="W27" s="177"/>
-      <c r="X27" s="177"/>
-      <c r="Y27" s="177"/>
-      <c r="Z27" s="177"/>
-      <c r="AA27" s="177"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="63"/>
     </row>
-    <row r="28" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="112" t="s">
+    <row r="28" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -4575,45 +4603,47 @@
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AB28" s="63"/>
     </row>
-    <row r="29" spans="2:27" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="107" t="s">
+    <row r="29" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="117"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="94"/>
       <c r="H29" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="9"/>
-      <c r="N29" s="178" t="s">
+      <c r="N29" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="178"/>
-      <c r="P29" s="178"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="X29" s="179" t="s">
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="X29" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="Y29" s="179"/>
-      <c r="Z29" s="179"/>
-      <c r="AA29" s="179"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="63"/>
     </row>
-    <row r="30" spans="2:27" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
       <c r="F30" s="7" t="s">
         <v>1</v>
       </c>
@@ -4622,25 +4652,27 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
+      <c r="AB30" s="63"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="180"/>
-      <c r="R31" s="180"/>
-      <c r="S31" s="180"/>
-      <c r="T31" s="180"/>
-      <c r="U31" s="180"/>
-      <c r="V31" s="180"/>
-      <c r="W31" s="180"/>
-      <c r="X31" s="180"/>
-      <c r="Y31" s="180"/>
-      <c r="Z31" s="180"/>
-      <c r="AA31" s="180"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
     </row>
-    <row r="32" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -4765,46 +4797,52 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="N23:AA23"/>
-    <mergeCell ref="N22:AA22"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:U15"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="Q18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:U20"/>
-    <mergeCell ref="V19:AA20"/>
-    <mergeCell ref="N21:AA21"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="N1:AA1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:U7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:U9"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="C9:K11"/>
+    <mergeCell ref="V9:AA9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:S13"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
@@ -4825,52 +4863,46 @@
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:U7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:U9"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="C9:K11"/>
-    <mergeCell ref="V9:AA9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="N1:AA1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="N23:AA23"/>
+    <mergeCell ref="N22:AA22"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:U15"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="Q18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:U20"/>
+    <mergeCell ref="V19:AA20"/>
+    <mergeCell ref="N21:AA21"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.43307086614173229" bottom="0.98425196850393704" header="0" footer="0"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>

--- a/documents/ReporteVale.xlsx
+++ b/documents/ReporteVale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Duarte Garcia\OneDrive - Universidad Técnica Nacional\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C120F-E069-44AD-BE91-0475B5B13018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4874BF8-2615-4E24-854E-9234BF605845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
   </bookViews>
@@ -241,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -379,6 +379,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1130,10 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1374,6 +1374,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1406,14 +1448,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1481,48 +1515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1577,6 +1569,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -1603,51 +1640,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -1686,6 +1678,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2023,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F8341-330E-4B75-B029-434DF2C2CA09}">
   <dimension ref="B1:AT113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2034,10 +2038,10 @@
     <col min="3" max="3" width="4.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" style="1" hidden="1" customWidth="1"/>
@@ -3763,926 +3767,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="N1" s="169" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="N1" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="63"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="62"/>
     </row>
     <row r="2" spans="2:28" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="63"/>
+      <c r="AB2" s="62"/>
     </row>
     <row r="3" spans="2:28" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="N3" s="172" t="s">
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="N3" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="176" t="s">
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="63"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="62"/>
     </row>
     <row r="4" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="N4" s="54" t="s">
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="N4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="178" t="s">
+      <c r="O4" s="54"/>
+      <c r="P4" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="56" t="s">
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="180" t="s">
+      <c r="X4" s="56"/>
+      <c r="Y4" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="63"/>
+      <c r="Z4" s="175"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="62"/>
     </row>
     <row r="5" spans="2:28" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="48" t="s">
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="N5" s="59" t="s">
+      <c r="K5" s="46"/>
+      <c r="N5" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="134" t="s">
+      <c r="P5" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="134" t="s">
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="63"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="62"/>
     </row>
     <row r="6" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44"/>
-      <c r="N6" s="83" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="43"/>
+      <c r="N6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="70"/>
-      <c r="P6" s="72" t="s">
+      <c r="O6" s="69"/>
+      <c r="P6" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="76" t="s">
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="63"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="62"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149" t="s">
+      <c r="C7" s="158"/>
+      <c r="D7" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="43" t="s">
+      <c r="E7" s="160"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="63"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="62"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="42"/>
-      <c r="N8" s="83" t="s">
+      <c r="B8" s="144"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="41"/>
+      <c r="N8" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="72" t="s">
+      <c r="O8" s="69"/>
+      <c r="P8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="76" t="s">
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="74"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="63"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="62"/>
     </row>
     <row r="9" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="165"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="63"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="154"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="62"/>
     </row>
     <row r="10" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="166"/>
-      <c r="N10" s="83" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="155"/>
+      <c r="N10" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="72" t="s">
+      <c r="O10" s="69"/>
+      <c r="P10" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74" t="s">
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="63"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="62"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="39"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="166"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="63"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="155"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="62"/>
     </row>
     <row r="12" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="N12" s="83" t="s">
+      <c r="I12" s="138"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="140"/>
+      <c r="N12" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="70"/>
-      <c r="P12" s="72" t="s">
+      <c r="O12" s="69"/>
+      <c r="P12" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="76" t="s">
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="74"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="63"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="62"/>
     </row>
     <row r="13" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="63"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="62"/>
     </row>
     <row r="14" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="N14" s="68" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
+      <c r="N14" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="72" t="s">
+      <c r="O14" s="69"/>
+      <c r="P14" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="76" t="s">
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="74"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="63"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="62"/>
     </row>
     <row r="15" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="63"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="140"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="62"/>
     </row>
     <row r="16" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
-      <c r="N16" s="83" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="140"/>
+      <c r="N16" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="72" t="s">
+      <c r="O16" s="69"/>
+      <c r="P16" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="76" t="s">
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="74"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="63"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="62"/>
     </row>
     <row r="17" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="63"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="135"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="62"/>
     </row>
     <row r="18" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="134" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="132"/>
+      <c r="E18" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="132"/>
+      <c r="G18" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="140"/>
-      <c r="N18" s="111" t="s">
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="137"/>
+      <c r="N18" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="114"/>
-      <c r="P18" s="117" t="s">
+      <c r="O18" s="125"/>
+      <c r="P18" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="120" t="s">
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="63"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="62"/>
     </row>
     <row r="19" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="35" t="s">
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="125"/>
-      <c r="AB19" s="63"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="120"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="62"/>
     </row>
     <row r="20" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="75" t="s">
+      <c r="C20" s="112"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="103"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="63"/>
+      <c r="K20" s="114"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="62"/>
     </row>
     <row r="21" spans="2:28" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>2</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-      <c r="N21" s="128" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
+      <c r="N21" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="63"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="62"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="93"/>
-      <c r="N22" s="67" t="s">
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="106"/>
+      <c r="N22" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="63"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="62"/>
     </row>
     <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="N23" s="66" t="s">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24"/>
+      <c r="N23" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="63"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="62"/>
     </row>
     <row r="24" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="24" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="22"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="63"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="21"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="62"/>
     </row>
     <row r="25" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="18" t="s">
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18" t="s">
+      <c r="I25" s="18"/>
+      <c r="J25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="17"/>
+      <c r="K25" s="16"/>
       <c r="N25" s="3"/>
-      <c r="AB25" s="63"/>
+      <c r="AB25" s="62"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
       <c r="N26" s="3"/>
-      <c r="AB26" s="63"/>
+      <c r="AB26" s="62"/>
     </row>
     <row r="27" spans="2:28" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="14"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="63"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="62"/>
     </row>
     <row r="28" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="11"/>
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB28" s="63"/>
+      <c r="AB28" s="62"/>
     </row>
     <row r="29" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="11" t="s">
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="N29" s="65" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="N29" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="X29" s="64" t="s">
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="X29" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="62"/>
     </row>
     <row r="30" spans="2:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="7" t="s">
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
-      <c r="AB30" s="63"/>
+      <c r="AB30" s="62"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
     </row>
     <row r="32" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">

--- a/documents/ReporteVale.xlsx
+++ b/documents/ReporteVale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Duarte Garcia\OneDrive - Universidad Técnica Nacional\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4874BF8-2615-4E24-854E-9234BF605845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C120F-E069-44AD-BE91-0475B5B13018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
   </bookViews>
@@ -241,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -379,10 +379,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="MS Sans Serif"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1134,6 +1130,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1374,48 +1374,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1448,6 +1406,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1515,6 +1481,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1569,6 +1577,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1614,32 +1648,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -1678,18 +1686,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F8341-330E-4B75-B029-434DF2C2CA09}">
   <dimension ref="B1:AT113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA47" sqref="AA47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2038,10 +2034,10 @@
     <col min="3" max="3" width="4.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" style="1" hidden="1" customWidth="1"/>
@@ -3767,926 +3763,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="N1" s="166" t="s">
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="N1" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="166"/>
-      <c r="AA1" s="166"/>
-      <c r="AB1" s="62"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="169"/>
+      <c r="W1" s="169"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="169"/>
+      <c r="AB1" s="63"/>
     </row>
     <row r="2" spans="2:28" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="62"/>
+      <c r="AB2" s="63"/>
     </row>
     <row r="3" spans="2:28" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="N3" s="169" t="s">
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="N3" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="173" t="s">
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="62"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="63"/>
     </row>
     <row r="4" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="N4" s="53" t="s">
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="N4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="175" t="s">
+      <c r="O4" s="55"/>
+      <c r="P4" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="55" t="s">
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="177" t="s">
+      <c r="X4" s="57"/>
+      <c r="Y4" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="175"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="62"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="63"/>
     </row>
     <row r="5" spans="2:28" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="47" t="s">
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="N5" s="58" t="s">
+      <c r="K5" s="47"/>
+      <c r="N5" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="59" t="s">
+      <c r="O5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="131" t="s">
+      <c r="P5" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="131" t="s">
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="62"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="162"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="63"/>
     </row>
     <row r="6" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="43"/>
-      <c r="N6" s="82" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="N6" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="69"/>
-      <c r="P6" s="71" t="s">
+      <c r="O6" s="70"/>
+      <c r="P6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="75" t="s">
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="62"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="63"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="42" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="62"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="63"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="41"/>
-      <c r="N8" s="82" t="s">
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="42"/>
+      <c r="N8" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="71" t="s">
+      <c r="O8" s="70"/>
+      <c r="P8" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="75" t="s">
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="73"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="62"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="63"/>
     </row>
     <row r="9" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="154"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="62"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="63"/>
     </row>
     <row r="10" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="155"/>
-      <c r="N10" s="82" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="166"/>
+      <c r="N10" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="71" t="s">
+      <c r="O10" s="70"/>
+      <c r="P10" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73" t="s">
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="62"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="63"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="155"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="62"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="166"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="63"/>
     </row>
     <row r="12" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="36" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="140"/>
-      <c r="N12" s="82" t="s">
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="N12" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="69"/>
-      <c r="P12" s="71" t="s">
+      <c r="O12" s="70"/>
+      <c r="P12" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="75" t="s">
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="73"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="62"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="63"/>
     </row>
     <row r="13" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="140"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="62"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="63"/>
     </row>
     <row r="14" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="140"/>
-      <c r="N14" s="67" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
+      <c r="N14" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="69"/>
-      <c r="P14" s="71" t="s">
+      <c r="O14" s="70"/>
+      <c r="P14" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="75" t="s">
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="73"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="62"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="63"/>
     </row>
     <row r="15" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="140"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="62"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="63"/>
     </row>
     <row r="16" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="140"/>
-      <c r="N16" s="82" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="143"/>
+      <c r="N16" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="69"/>
-      <c r="P16" s="71" t="s">
+      <c r="O16" s="70"/>
+      <c r="P16" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="75" t="s">
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="73"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="62"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="63"/>
     </row>
     <row r="17" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="135"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="62"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="63"/>
     </row>
     <row r="18" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
-      <c r="C18" s="131" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="131" t="s">
+      <c r="D18" s="135"/>
+      <c r="E18" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="48" t="s">
+      <c r="F18" s="135"/>
+      <c r="G18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="137"/>
-      <c r="N18" s="122" t="s">
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="140"/>
+      <c r="N18" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="125"/>
-      <c r="P18" s="84" t="s">
+      <c r="O18" s="114"/>
+      <c r="P18" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="87" t="s">
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="62"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="63"/>
     </row>
     <row r="19" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="34" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="120"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="62"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="109"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="63"/>
     </row>
     <row r="20" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="74" t="s">
+      <c r="C20" s="101"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="114"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="62"/>
+      <c r="K20" s="103"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="63"/>
     </row>
     <row r="21" spans="2:28" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
+      <c r="B21" s="21">
         <v>2</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="27"/>
-      <c r="N21" s="95" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="28"/>
+      <c r="N21" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="62"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="129"/>
+      <c r="Q21" s="129"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="129"/>
+      <c r="W21" s="129"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="129"/>
+      <c r="Z21" s="129"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="63"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="106"/>
-      <c r="N22" s="66" t="s">
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="93"/>
+      <c r="N22" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="62"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="63"/>
     </row>
     <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="24"/>
-      <c r="N23" s="65" t="s">
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="25"/>
+      <c r="N23" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="62"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="63"/>
     </row>
     <row r="24" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="23" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="21"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="62"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="22"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="63"/>
     </row>
     <row r="25" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="17" t="s">
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="17" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="17" t="s">
+      <c r="I25" s="19"/>
+      <c r="J25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="K25" s="17"/>
       <c r="N25" s="3"/>
-      <c r="AB25" s="62"/>
+      <c r="AB25" s="63"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="105"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
       <c r="N26" s="3"/>
-      <c r="AB26" s="62"/>
+      <c r="AB26" s="63"/>
     </row>
     <row r="27" spans="2:28" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="13"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="62"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="63"/>
     </row>
     <row r="28" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="11"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="12"/>
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB28" s="62"/>
+      <c r="AB28" s="63"/>
     </row>
     <row r="29" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="10" t="s">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="8"/>
-      <c r="N29" s="64" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9"/>
+      <c r="N29" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="X29" s="63" t="s">
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="X29" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="62"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="63"/>
     </row>
     <row r="30" spans="2:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="6" t="s">
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="180"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
-      <c r="AB30" s="62"/>
+      <c r="AB30" s="63"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
     </row>
     <row r="32" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">

--- a/documents/ReporteVale.xlsx
+++ b/documents/ReporteVale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Duarte Garcia\OneDrive - Universidad Técnica Nacional\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldua\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C120F-E069-44AD-BE91-0475B5B13018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CE2DF8-6060-42D6-ACD2-94B94814C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
   </bookViews>
   <sheets>
     <sheet name="Vale" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -379,6 +379,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1130,10 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1143,9 +1143,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1311,6 +1308,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,6 +1374,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1406,12 +1449,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1481,48 +1524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1577,6 +1578,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -1603,51 +1649,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -1686,6 +1687,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2023,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F8341-330E-4B75-B029-434DF2C2CA09}">
   <dimension ref="B1:AT113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA47" sqref="AA47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2034,10 +2038,10 @@
     <col min="3" max="3" width="4.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" style="1" hidden="1" customWidth="1"/>
@@ -3763,926 +3767,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="N1" s="169" t="s">
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="N1" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="63"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="61"/>
     </row>
     <row r="2" spans="2:28" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="63"/>
+      <c r="AB2" s="61"/>
     </row>
     <row r="3" spans="2:28" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="N3" s="172" t="s">
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="N3" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="173"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="175"/>
-      <c r="W3" s="176" t="s">
+      <c r="O3" s="172"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="63"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="61"/>
     </row>
     <row r="4" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="N4" s="54" t="s">
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="N4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="178" t="s">
+      <c r="O4" s="53"/>
+      <c r="P4" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="56" t="s">
+      <c r="Q4" s="177"/>
+      <c r="R4" s="177"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="177"/>
+      <c r="U4" s="177"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="180" t="s">
+      <c r="X4" s="55"/>
+      <c r="Y4" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="63"/>
+      <c r="Z4" s="177"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="61"/>
     </row>
     <row r="5" spans="2:28" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="48" t="s">
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="N5" s="59" t="s">
+      <c r="K5" s="45"/>
+      <c r="N5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="134" t="s">
+      <c r="P5" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
-      <c r="U5" s="162"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="134" t="s">
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="162"/>
-      <c r="Z5" s="162"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="63"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="154"/>
+      <c r="AB5" s="61"/>
     </row>
     <row r="6" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44"/>
-      <c r="N6" s="83" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="42"/>
+      <c r="N6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="70"/>
-      <c r="P6" s="72" t="s">
+      <c r="O6" s="69"/>
+      <c r="P6" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="76" t="s">
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="74"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="63"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="61"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149" t="s">
+      <c r="C7" s="160"/>
+      <c r="D7" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="43" t="s">
+      <c r="E7" s="162"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="63"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="61"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="42"/>
-      <c r="N8" s="83" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="40"/>
+      <c r="N8" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="72" t="s">
+      <c r="O8" s="69"/>
+      <c r="P8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="76" t="s">
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="74"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="63"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="61"/>
     </row>
     <row r="9" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="165"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="81"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="63"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="156"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="61"/>
     </row>
     <row r="10" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="40"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="166"/>
-      <c r="N10" s="83" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="157"/>
+      <c r="N10" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="72" t="s">
+      <c r="O10" s="69"/>
+      <c r="P10" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74" t="s">
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="63"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="61"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="39"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="166"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="63"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="157"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="61"/>
     </row>
     <row r="12" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37" t="s">
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="N12" s="83" t="s">
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
+      <c r="N12" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="70"/>
-      <c r="P12" s="72" t="s">
+      <c r="O12" s="69"/>
+      <c r="P12" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="76" t="s">
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="74"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="63"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="61"/>
     </row>
     <row r="13" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="63"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="142"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="61"/>
     </row>
     <row r="14" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="N14" s="68" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="142"/>
+      <c r="N14" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="70"/>
-      <c r="P14" s="72" t="s">
+      <c r="O14" s="69"/>
+      <c r="P14" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="76" t="s">
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="74"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="63"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="61"/>
     </row>
     <row r="15" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="63"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="142"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="61"/>
     </row>
     <row r="16" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
-      <c r="N16" s="83" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="142"/>
+      <c r="N16" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="72" t="s">
+      <c r="O16" s="69"/>
+      <c r="P16" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="76" t="s">
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="74"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="63"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="61"/>
     </row>
     <row r="17" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="138"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="63"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="137"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="80"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="61"/>
     </row>
     <row r="18" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
-      <c r="C18" s="134" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="135"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="134"/>
+      <c r="E18" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="134"/>
+      <c r="G18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="140"/>
-      <c r="N18" s="111" t="s">
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="139"/>
+      <c r="N18" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="114"/>
-      <c r="P18" s="117" t="s">
+      <c r="O18" s="127"/>
+      <c r="P18" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="120" t="s">
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="74"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="63"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="61"/>
     </row>
     <row r="19" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="35" t="s">
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="125"/>
-      <c r="AB19" s="63"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="122"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="61"/>
     </row>
     <row r="20" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="75" t="s">
+      <c r="C20" s="114"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="103"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="63"/>
+      <c r="K20" s="116"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="61"/>
     </row>
     <row r="21" spans="2:28" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
+      <c r="B21" s="19">
         <v>2</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="28"/>
-      <c r="N21" s="128" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="26"/>
+      <c r="N21" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="129"/>
-      <c r="W21" s="129"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="129"/>
-      <c r="Z21" s="129"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="63"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="61"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="93"/>
-      <c r="N22" s="67" t="s">
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="106"/>
+      <c r="N22" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="63"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="61"/>
     </row>
     <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="N23" s="66" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="23"/>
+      <c r="N23" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="63"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="61"/>
     </row>
     <row r="24" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="24" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="22"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="63"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="20"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="61"/>
     </row>
     <row r="25" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="18" t="s">
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="17"/>
+      <c r="K25" s="15"/>
       <c r="N25" s="3"/>
-      <c r="AB25" s="63"/>
+      <c r="AB25" s="61"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
       <c r="N26" s="3"/>
-      <c r="AB26" s="63"/>
+      <c r="AB26" s="61"/>
     </row>
     <row r="27" spans="2:28" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="14"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="63"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="12"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="61"/>
     </row>
     <row r="28" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="180"/>
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB28" s="63"/>
+      <c r="AB28" s="61"/>
     </row>
     <row r="29" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="11" t="s">
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="N29" s="65" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="N29" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="X29" s="64" t="s">
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="X29" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="61"/>
     </row>
     <row r="30" spans="2:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="7" t="s">
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
-      <c r="AB30" s="63"/>
+      <c r="AB30" s="61"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
     </row>
     <row r="32" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
@@ -4796,7 +4800,7 @@
       <c r="K113" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="107">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="N1:AA1"/>
     <mergeCell ref="B2:J2"/>
@@ -4881,6 +4885,7 @@
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G28:K28"/>
     <mergeCell ref="X29:AA29"/>
     <mergeCell ref="N29:T29"/>
     <mergeCell ref="N23:AA23"/>

--- a/documents/ReporteVale.xlsx
+++ b/documents/ReporteVale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldua\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joan Bravo\Documents\GitHub\Frontend\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CE2DF8-6060-42D6-ACD2-94B94814C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2552BD-1163-4A86-806A-1C8F024A3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8E842AF-28D0-4143-9950-C0C2C392F242}"/>
   </bookViews>
   <sheets>
     <sheet name="Vale" sheetId="1" r:id="rId1"/>
@@ -315,12 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Franklin Gothic Medium Cond"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Franklin Gothic Medium"/>
@@ -383,6 +377,14 @@
       <sz val="12"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Franklin Gothic Medium Cond"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1121,7 +1123,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1170,15 +1172,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1222,13 +1215,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1237,7 +1230,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1253,7 +1246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1263,15 +1256,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1308,27 +1301,122 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1342,38 +1430,132 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,49 +1566,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1449,11 +1592,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1469,227 +1612,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="18" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F8341-330E-4B75-B029-434DF2C2CA09}">
   <dimension ref="B1:AT113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:K28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3767,774 +3760,774 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="N1" s="168" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="N1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="58"/>
     </row>
     <row r="2" spans="2:28" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
       <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="61"/>
+      <c r="AB2" s="58"/>
     </row>
     <row r="3" spans="2:28" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="N3" s="171" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="N3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="172"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="175" t="s">
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="61"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="58"/>
     </row>
     <row r="4" spans="2:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="N4" s="52" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="N4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="177" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
-      <c r="U4" s="177"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="54" t="s">
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="179" t="s">
+      <c r="X4" s="52"/>
+      <c r="Y4" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="177"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="61"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="2:28" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="46" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="N5" s="57" t="s">
+      <c r="K5" s="42"/>
+      <c r="N5" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="133" t="s">
+      <c r="P5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="133" t="s">
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="61"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="58"/>
     </row>
     <row r="6" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="42"/>
-      <c r="N6" s="82" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="39"/>
+      <c r="N6" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="69"/>
-      <c r="P6" s="71" t="s">
+      <c r="O6" s="96"/>
+      <c r="P6" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="75" t="s">
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="61"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="58"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="41" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="61"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="58"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="40"/>
-      <c r="N8" s="82" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="37"/>
+      <c r="N8" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="71" t="s">
+      <c r="O8" s="96"/>
+      <c r="P8" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="75" t="s">
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="73"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="61"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="58"/>
     </row>
     <row r="9" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="156"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="61"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="58"/>
     </row>
     <row r="10" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="38"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="157"/>
-      <c r="N10" s="82" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="N10" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="71" t="s">
+      <c r="O10" s="96"/>
+      <c r="P10" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73" t="s">
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="61"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="58"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="157"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="61"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="58"/>
     </row>
     <row r="12" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="35" t="s">
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="142"/>
-      <c r="N12" s="82" t="s">
+      <c r="I12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
+      <c r="N12" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="69"/>
-      <c r="P12" s="71" t="s">
+      <c r="O12" s="96"/>
+      <c r="P12" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="75" t="s">
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="73"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="61"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="58"/>
     </row>
     <row r="13" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="142"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="61"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="112"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="58"/>
     </row>
     <row r="14" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="142"/>
-      <c r="N14" s="67" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="112"/>
+      <c r="N14" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="69"/>
-      <c r="P14" s="71" t="s">
+      <c r="O14" s="96"/>
+      <c r="P14" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="75" t="s">
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="73"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="61"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="58"/>
     </row>
     <row r="15" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="61"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="112"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="58"/>
     </row>
     <row r="16" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="142"/>
-      <c r="N16" s="82" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
+      <c r="N16" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="69"/>
-      <c r="P16" s="71" t="s">
+      <c r="O16" s="96"/>
+      <c r="P16" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="75" t="s">
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="73"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="61"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="58"/>
     </row>
     <row r="17" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="61"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="177"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="58"/>
     </row>
     <row r="18" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="133" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="133" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="G18" s="47" t="s">
+      <c r="F18" s="78"/>
+      <c r="G18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="139"/>
-      <c r="N18" s="124" t="s">
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
+      <c r="N18" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="127"/>
-      <c r="P18" s="84" t="s">
+      <c r="O18" s="135"/>
+      <c r="P18" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="87" t="s">
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="61"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="58"/>
     </row>
     <row r="19" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="33" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="122"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="61"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="130"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="165"/>
+      <c r="U19" s="165"/>
+      <c r="V19" s="166"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="167"/>
+      <c r="AB19" s="58"/>
     </row>
     <row r="20" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="74" t="s">
+      <c r="C20" s="122"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="116"/>
-      <c r="N20" s="126"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="61"/>
+      <c r="K20" s="124"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="58"/>
     </row>
     <row r="21" spans="2:28" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19">
         <v>2</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="26"/>
-      <c r="N21" s="95" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="N21" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="61"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="171"/>
+      <c r="Z21" s="171"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="58"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="106"/>
-      <c r="N22" s="66" t="s">
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="147"/>
+      <c r="N22" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="61"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="159"/>
+      <c r="X22" s="159"/>
+      <c r="Y22" s="159"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="159"/>
+      <c r="AB22" s="58"/>
     </row>
     <row r="23" spans="2:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25" t="s">
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="23"/>
-      <c r="N23" s="65" t="s">
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="20"/>
+      <c r="N23" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="61"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="158"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="158"/>
+      <c r="T23" s="158"/>
+      <c r="U23" s="158"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
+      <c r="Y23" s="158"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="158"/>
+      <c r="AB23" s="58"/>
     </row>
     <row r="24" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="22" t="s">
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="20"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="61"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="174"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="58"/>
     </row>
     <row r="25" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="111"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
       <c r="F25" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="16" t="s">
@@ -4546,23 +4539,23 @@
       </c>
       <c r="K25" s="15"/>
       <c r="N25" s="3"/>
-      <c r="AB25" s="61"/>
+      <c r="AB25" s="58"/>
     </row>
     <row r="26" spans="2:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="105"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="146"/>
       <c r="N26" s="3"/>
-      <c r="AB26" s="61"/>
+      <c r="AB26" s="58"/>
     </row>
     <row r="27" spans="2:28" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
@@ -4575,118 +4568,118 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="12"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="61"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="58"/>
     </row>
     <row r="28" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="180"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="155"/>
       <c r="N28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AB28" s="61"/>
+      <c r="AB28" s="58"/>
     </row>
     <row r="29" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="107"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="8"/>
-      <c r="N29" s="64" t="s">
+      <c r="N29" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="X29" s="63" t="s">
+      <c r="O29" s="157"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="157"/>
+      <c r="T29" s="157"/>
+      <c r="X29" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="61"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="58"/>
     </row>
     <row r="30" spans="2:28" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="109"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="150"/>
       <c r="F30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="4"/>
-      <c r="AB30" s="61"/>
+      <c r="AB30" s="58"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
     </row>
     <row r="32" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
@@ -4800,17 +4793,81 @@
       <c r="K113" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="N1:AA1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="Y4:Z4"/>
+  <mergeCells count="108">
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="N23:AA23"/>
+    <mergeCell ref="N22:AA22"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:U15"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:U17"/>
+    <mergeCell ref="Q18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:U20"/>
+    <mergeCell ref="V19:AA20"/>
+    <mergeCell ref="N21:AA21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="V17:AA17"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="V10:AA10"/>
+    <mergeCell ref="V11:AA11"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="T12:U13"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="V12:AA12"/>
+    <mergeCell ref="V13:AA13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:S13"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AA5"/>
@@ -4835,79 +4892,16 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="F7:J8"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="V12:AA12"/>
-    <mergeCell ref="V13:AA13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="V17:AA17"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:U11"/>
-    <mergeCell ref="V10:AA10"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="V14:AA14"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="T12:U13"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="N23:AA23"/>
-    <mergeCell ref="N22:AA22"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:U15"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:U17"/>
-    <mergeCell ref="Q18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:U20"/>
-    <mergeCell ref="V19:AA20"/>
-    <mergeCell ref="N21:AA21"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="N1:AA1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="Y4:Z4"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.43307086614173229" bottom="0.98425196850393704" header="0" footer="0"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
